--- a/excel_files/Ingredients.xlsx
+++ b/excel_files/Ingredients.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haneen/Documents/School/Undergrad/ece_cs/cs411/Project/PantryTM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haneen/Documents/School/Undergrad/ece_cs/cs411/Project/PantryTM/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9FE7B98-90E2-8D43-9A80-8639A845B4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECDB630-152D-5F45-B5A0-65CE14301809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{AD2231EC-AC13-A243-940B-5A14D65460B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredients" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="183">
   <si>
     <t>ID</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>grated medium sharp cheddar cheese</t>
-  </si>
-  <si>
-    <t>cuo</t>
   </si>
   <si>
     <t>grated Gruyere cheese</t>
@@ -974,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DA9975-4A0B-E847-8B00-17E3AB23B92B}">
   <dimension ref="A1:H227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D19 C22:D25 C35:D41 C111:D123 C130:D131 C136:D137 C140:D141 C153:D159 C177:D178 C180:D184 C217:D217 C227:D227"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2099,7 +2096,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
@@ -2107,13 +2104,13 @@
         <v>10</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79" s="3">
         <v>2</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
@@ -2163,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="3">
         <v>2</v>
@@ -2177,7 +2174,7 @@
         <v>11</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="3">
         <v>2</v>
@@ -2192,13 +2189,13 @@
         <v>11</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C85" s="3">
-        <v>2</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E85" s="8"/>
     </row>
@@ -2207,7 +2204,7 @@
         <v>12</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" s="6">
         <v>3</v>
@@ -2221,7 +2218,7 @@
         <v>12</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" s="6">
         <f>1/3</f>
@@ -2236,7 +2233,7 @@
         <v>12</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="6">
         <f t="shared" ref="C88:C89" si="0">1/3</f>
@@ -2251,7 +2248,7 @@
         <v>12</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" s="6">
         <f t="shared" si="0"/>
@@ -2280,7 +2277,7 @@
         <v>12</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="6">
         <v>1</v>
@@ -2308,7 +2305,7 @@
         <v>12</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="6">
         <v>0.25</v>
@@ -2322,13 +2319,13 @@
         <v>13</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="3">
         <v>2</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E94" s="9"/>
     </row>
@@ -2337,7 +2334,7 @@
         <v>13</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
@@ -2352,7 +2349,7 @@
         <v>13</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="3">
         <v>2</v>
@@ -2366,7 +2363,7 @@
         <v>14</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="3">
         <v>1.75</v>
@@ -2381,7 +2378,7 @@
         <v>14</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98" s="3">
         <v>6</v>
@@ -2395,7 +2392,7 @@
         <v>14</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="3">
         <v>2</v>
@@ -2423,7 +2420,7 @@
         <v>14</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="3">
         <v>3</v>
@@ -2437,7 +2434,7 @@
         <v>14</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="3">
         <v>3</v>
@@ -2451,7 +2448,7 @@
         <v>14</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="3">
         <v>5</v>
@@ -2479,7 +2476,7 @@
         <v>14</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="3">
         <v>0.5</v>
@@ -2507,7 +2504,7 @@
         <v>14</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
@@ -2535,7 +2532,7 @@
         <v>14</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109" s="3">
         <v>0.5</v>
@@ -2563,7 +2560,7 @@
         <v>15</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>25</v>
@@ -2577,7 +2574,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>25</v>
@@ -2591,7 +2588,7 @@
         <v>16</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>25</v>
@@ -2605,7 +2602,7 @@
         <v>16</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>25</v>
@@ -2619,7 +2616,7 @@
         <v>16</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>25</v>
@@ -2661,7 +2658,7 @@
         <v>16</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>25</v>
@@ -2675,7 +2672,7 @@
         <v>16</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>25</v>
@@ -2703,7 +2700,7 @@
         <v>16</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>25</v>
@@ -2717,7 +2714,7 @@
         <v>16</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>25</v>
@@ -2731,7 +2728,7 @@
         <v>16</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>25</v>
@@ -2745,13 +2742,13 @@
         <v>17</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124" s="6">
+        <v>2</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C124" s="6">
-        <v>2</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
@@ -2759,7 +2756,7 @@
         <v>17</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C125" s="6">
         <v>1</v>
@@ -2787,7 +2784,7 @@
         <v>17</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C127" s="6">
         <v>0.25</v>
@@ -2801,7 +2798,7 @@
         <v>17</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C128" s="6">
         <v>2</v>
@@ -2822,7 +2819,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
@@ -2845,7 +2842,7 @@
         <v>17</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>25</v>
@@ -2859,7 +2856,7 @@
         <v>18</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C132" s="6">
         <v>2</v>
@@ -2887,7 +2884,7 @@
         <v>18</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C134" s="6">
         <v>0.25</v>
@@ -2901,7 +2898,7 @@
         <v>18</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C135" s="6">
         <f>2/3</f>
@@ -2916,7 +2913,7 @@
         <v>18</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>25</v>
@@ -2930,7 +2927,7 @@
         <v>18</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>25</v>
@@ -2945,7 +2942,7 @@
         <v>18</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C138" s="6">
         <v>0.5</v>
@@ -2959,7 +2956,7 @@
         <v>19</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C139" s="6">
         <v>1</v>
@@ -2987,7 +2984,7 @@
         <v>19</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>25</v>
@@ -3002,7 +2999,7 @@
         <v>20</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C142" s="6">
         <v>1</v>
@@ -3031,7 +3028,7 @@
         <v>20</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C144" s="6">
         <v>2</v>
@@ -3059,7 +3056,7 @@
         <v>20</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C146" s="6">
         <v>2</v>
@@ -3087,7 +3084,7 @@
         <v>20</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C148" s="6">
         <v>0.25</v>
@@ -3101,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C149" s="6">
         <v>1</v>
@@ -3115,7 +3112,7 @@
         <v>21</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C150" s="6">
         <v>1</v>
@@ -3129,7 +3126,7 @@
         <v>21</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C151" s="6">
         <v>0.75</v>
@@ -3157,7 +3154,7 @@
         <v>21</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>25</v>
@@ -3171,7 +3168,7 @@
         <v>21</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>25</v>
@@ -3185,7 +3182,7 @@
         <v>21</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>25</v>
@@ -3199,7 +3196,7 @@
         <v>21</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>25</v>
@@ -3213,7 +3210,7 @@
         <v>21</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>25</v>
@@ -3227,7 +3224,7 @@
         <v>21</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>25</v>
@@ -3270,7 +3267,7 @@
         <v>22</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C161" s="6">
         <v>1</v>
@@ -3284,7 +3281,7 @@
         <v>22</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C162" s="6">
         <v>1</v>
@@ -3298,7 +3295,7 @@
         <v>22</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C163" s="6">
         <v>0.5</v>
@@ -3312,7 +3309,7 @@
         <v>22</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C164" s="6">
         <v>0.5</v>
@@ -3326,7 +3323,7 @@
         <v>22</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C165" s="6">
         <v>1</v>
@@ -3341,7 +3338,7 @@
         <v>22</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C166" s="6">
         <v>2</v>
@@ -3355,7 +3352,7 @@
         <v>22</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C167" s="6">
         <v>2</v>
@@ -3369,7 +3366,7 @@
         <v>23</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C168" s="6">
         <v>1</v>
@@ -3383,7 +3380,7 @@
         <v>23</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C169" s="6">
         <f>1/6</f>
@@ -3412,7 +3409,7 @@
         <v>23</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C171" s="6">
         <v>0.5</v>
@@ -3426,7 +3423,7 @@
         <v>23</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C172" s="6">
         <v>1</v>
@@ -3440,7 +3437,7 @@
         <v>23</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C173" s="6">
         <v>1</v>
@@ -3454,7 +3451,7 @@
         <v>23</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C174" s="6">
         <v>1</v>
@@ -3496,7 +3493,7 @@
         <v>23</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>25</v>
@@ -3510,7 +3507,7 @@
         <v>23</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>25</v>
@@ -3538,7 +3535,7 @@
         <v>23</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>25</v>
@@ -3552,7 +3549,7 @@
         <v>23</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>25</v>
@@ -3566,7 +3563,7 @@
         <v>23</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>25</v>
@@ -3580,7 +3577,7 @@
         <v>23</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>25</v>
@@ -3594,7 +3591,7 @@
         <v>23</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>25</v>
@@ -3608,7 +3605,7 @@
         <v>24</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C185" s="6">
         <f>1/6</f>
@@ -3623,7 +3620,7 @@
         <v>24</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C186" s="6">
         <v>0.25</v>
@@ -3638,7 +3635,7 @@
         <v>24</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C187" s="6">
         <f>1/6</f>
@@ -3653,7 +3650,7 @@
         <v>24</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C188" s="6">
         <f>1/4</f>
@@ -3668,7 +3665,7 @@
         <v>24</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C189" s="6">
         <f>1/8</f>
@@ -3683,7 +3680,7 @@
         <v>24</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C190" s="6">
         <v>1</v>
@@ -3711,7 +3708,7 @@
         <v>24</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C192" s="6">
         <v>4</v>
@@ -3725,7 +3722,7 @@
         <v>24</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C193" s="6">
         <f>1/6</f>
@@ -3740,7 +3737,7 @@
         <v>24</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C194" s="6">
         <v>2</v>
@@ -3755,13 +3752,13 @@
         <v>24</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C195" s="6">
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
@@ -3769,13 +3766,13 @@
         <v>24</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C196" s="6">
         <v>1</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
@@ -3783,7 +3780,7 @@
         <v>25</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C197" s="6">
         <v>3</v>
@@ -3811,7 +3808,7 @@
         <v>25</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C199" s="6">
         <v>1</v>
@@ -3825,7 +3822,7 @@
         <v>25</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C200" s="6">
         <v>2</v>
@@ -3839,7 +3836,7 @@
         <v>25</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C201" s="6">
         <v>2</v>
@@ -3853,7 +3850,7 @@
         <v>25</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C202" s="6">
         <v>3</v>
@@ -3867,13 +3864,13 @@
         <v>25</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C203" s="6">
+        <v>2</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C203" s="6">
-        <v>2</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="E203" s="10"/>
     </row>
@@ -3882,7 +3879,7 @@
         <v>25</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C204" s="6">
         <v>1</v>
@@ -3896,7 +3893,7 @@
         <v>25</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C205" s="6">
         <v>0.25</v>
@@ -3910,7 +3907,7 @@
         <v>26</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C206" s="6">
         <v>1</v>
@@ -3924,7 +3921,7 @@
         <v>26</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C207" s="6">
         <v>2</v>
@@ -3938,7 +3935,7 @@
         <v>26</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C208" s="6">
         <v>2</v>
@@ -3966,7 +3963,7 @@
         <v>26</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C210" s="6">
         <v>1</v>
@@ -3994,7 +3991,7 @@
         <v>26</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C212" s="6">
         <v>2</v>
@@ -4008,7 +4005,7 @@
         <v>26</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C213" s="6">
         <v>2</v>
@@ -4022,7 +4019,7 @@
         <v>26</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C214" s="6">
         <v>4</v>
@@ -4051,7 +4048,7 @@
         <v>26</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C216" s="6">
         <v>0.25</v>
@@ -4107,7 +4104,7 @@
         <v>27</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C220" s="6">
         <v>4</v>
@@ -4121,7 +4118,7 @@
         <v>27</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C221" s="6">
         <v>2</v>
@@ -4149,7 +4146,7 @@
         <v>27</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C223" s="6">
         <v>0.5</v>
@@ -4163,7 +4160,7 @@
         <v>27</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C224" s="6">
         <v>2</v>
@@ -4191,7 +4188,7 @@
         <v>27</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C226" s="6">
         <v>1</v>
@@ -4205,7 +4202,7 @@
         <v>27</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>25</v>
